--- a/sjdj/33001.xlsx
+++ b/sjdj/33001.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[    10,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(52, 120), match='[    10,    0,    0,    3,    0,    0,    0,    0&gt;</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[    20,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(54, 122), match='[    20,    0,    0,    3,    0,    0,    0,    0&gt;</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[    30,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(47, 115), match='[    30,    0,    0,    3,    0,    0,    0,    0&gt;</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(42, 109), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(45, 112), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(45, 112), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(56, 123), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(47, 114), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(48, 115), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(47, 114), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(47, 114), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(55, 122), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(50, 117), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(45, 112), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(44, 111), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(44, 111), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(48, 115), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(45, 112), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(54, 121), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(49, 116), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(40, 107), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(44, 111), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(53, 120), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(48, 115), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(41, 108), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(53, 120), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(47, 114), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(56, 123), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(56, 123), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(57, 124), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(49, 116), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(45, 112), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(44, 111), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(55, 122), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(43, 110), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(51, 118), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(54, 121), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(40, 107), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(40, 107), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(54, 121), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[    0,    0,    0,    3,    0,    0,    0,    0,    0,    0,    0]</t>
+          <t>&lt;re.Match object; span=(55, 122), match='[    0,    0,    0,    3,    0,    0,    0,    0,&gt;</t>
         </is>
       </c>
     </row>
